--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed5/result_data_RandomForest.xlsx
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.053999999999999</v>
+        <v>-6.078699999999995</v>
       </c>
     </row>
     <row r="13">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.862600000000001</v>
+        <v>-7.908400000000003</v>
       </c>
     </row>
     <row r="28">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.649899999999993</v>
+        <v>-7.310799999999993</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.015300000000002</v>
+        <v>-7.878099999999997</v>
       </c>
     </row>
     <row r="37">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.390299999999999</v>
+        <v>-7.226899999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.159700000000001</v>
+        <v>-8.106299999999994</v>
       </c>
     </row>
     <row r="47">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.860300000000003</v>
+        <v>-7.853000000000002</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.454099999999993</v>
+        <v>-7.242899999999996</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-9.044599999999999</v>
+        <v>-8.9641</v>
       </c>
     </row>
     <row r="57">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.080399999999995</v>
+        <v>-7.347399999999994</v>
       </c>
     </row>
     <row r="68">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.486199999999998</v>
+        <v>-7.614999999999997</v>
       </c>
     </row>
     <row r="70">
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.206599999999995</v>
+        <v>-7.378999999999998</v>
       </c>
     </row>
     <row r="73">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.138299999999996</v>
+        <v>-9.250500000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.6572</v>
+        <v>-8.476400000000002</v>
       </c>
     </row>
     <row r="87">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.995900000000003</v>
+        <v>-8.016300000000001</v>
       </c>
     </row>
     <row r="92">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.947299999999992</v>
+        <v>-6.988299999999994</v>
       </c>
     </row>
     <row r="94">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.042400000000004</v>
+        <v>-8.104800000000004</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.632800000000002</v>
+        <v>-7.642500000000001</v>
       </c>
     </row>
     <row r="105">
